--- a/src/attributions/attributions_ig_traj_246.xlsx
+++ b/src/attributions/attributions_ig_traj_246.xlsx
@@ -1004,61 +1004,61 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1528558023611161</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1488752232613452</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.05797647851214689</v>
+        <v>0.006311952090878249</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.05364586990841922</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05028028061888605</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1155433154479086</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.07972920186626041</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01152693324982533</v>
+        <v>0.00661100191344156</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-0.02419526221525317</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0264006351880396</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.03797769438610604</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,40 +1067,40 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0</v>
+        <v>-0.01925857314445308</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02215111857596197</v>
+        <v>-0.0595082535345634</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>-0.06816316826167586</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.03157478847571804</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03484487871564868</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.1159254211568217</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.01345296089774712</v>
+        <v>0.08486384533565811</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0.02851627624775247</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.06629416217137163</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.08448728921059517</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1121,94 +1121,94 @@
         <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.04132708043014814</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02424437598250051</v>
+        <v>0.0663670566405004</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>-0.01024491419204609</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.004300673794991089</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1860393991278611</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0</v>
+        <v>0.2211451979698737</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.19666967793163</v>
+        <v>0.03422967482642116</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.04223171971692038</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.1633151439138343</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06070720613762461</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>0.09891822501371608</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.05767228332886248</v>
+        <v>-0.02220649325481184</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>-0.09326897894219804</v>
       </c>
       <c r="BI2" t="n">
         <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1536686002288846</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02488778631047257</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.02132353223135025</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02670449898696749</v>
+        <v>-0.0579932075677525</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>-0.01704720765299038</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
@@ -1217,64 +1217,64 @@
         <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.07030916149531184</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04816200045351544</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.04657959210254212</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.1002182248035178</v>
+        <v>-0.0353368193706783</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0.08904962381677516</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.0858785354651241</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.07975087501266984</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0</v>
+        <v>-0.06860903786441296</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.008565089135986801</v>
+        <v>-0.008659830818778193</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0.03812625309241321</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.03147190403669448</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.004563702223084541</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
         <v>-0</v>
@@ -1283,40 +1283,40 @@
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>-0.0005287460617998015</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.01014618088093396</v>
+        <v>0.004111209697031854</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>-0.00119047269377804</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.006963228598638992</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.08278574954737029</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>-0.07112173593109448</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002358296771358398</v>
+        <v>-0.004999700411400642</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>0.03090778074950343</v>
       </c>
       <c r="DB2" t="n">
         <v>-0</v>
@@ -1325,91 +1325,91 @@
         <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.05086772940168425</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.08342395080373724</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.06500617381481298</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.005764803221328888</v>
+        <v>0.03552440087288096</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>0.009677812276101129</v>
       </c>
       <c r="DK2" t="n">
         <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.02714508421907123</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0487910466184428</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>-0.009305288697712214</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.1580010895156913</v>
+        <v>-0.04782515216847171</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0.04215528909124966</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.08556731206445363</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.06136130602587129</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>0.04753042202106113</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.08619510596174712</v>
+        <v>0.07827132690739702</v>
       </c>
       <c r="EB2" t="n">
-        <v>0</v>
+        <v>0.01954406050415233</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.05462708327503788</v>
+        <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1538920494563116</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1418,79 +1418,79 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>-0.08840738539852316</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.01986829066201997</v>
+        <v>-0.04797306459453922</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>0.02280952684260772</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.09005643949715397</v>
+        <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.05351488702619018</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03159570469804673</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0415878682916238</v>
+        <v>-0.09019942571040132</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0.02810255236131601</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
         <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.03837784942273639</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.07552856771445204</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>-0.06023628329339496</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.01905487109089792</v>
+        <v>-0.008691119163676091</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0.04160476102384245</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.06044358433894052</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.03153018468466277</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1499,76 +1499,76 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>-0.009884025459642294</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02824840097810967</v>
+        <v>-0.04087068667625519</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>0.08343686559044271</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.1049584947395406</v>
+        <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.07686153505205312</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.04203679141297367</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.08938066899294701</v>
+        <v>0.01124247504929291</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>-0.04791828785046845</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.08369534167582894</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05388349682236621</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>0.01592295058534574</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>0.003757082302165309</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.1534183551526443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>-0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>-0</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>-0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>-0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>-0</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>-0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>-0</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>-0</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
@@ -2142,184 +2142,184 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1543397341879695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1188799097317445</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08497549314766757</v>
+        <v>-0.02958496910814492</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.02491550761316389</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08846407584680303</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.09722471334956828</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07479757487885494</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1256750961618581</v>
+        <v>-0.03278966188421516</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01422171630062785</v>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.05326175919720234</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02331516659163542</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.03897347074938626</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.006848291761682167</v>
+        <v>-0.0453698701740789</v>
       </c>
       <c r="X4" t="n">
-        <v>-0</v>
+        <v>-0.00808991515336689</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05613741113921072</v>
+        <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0.06082690709256043</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1284560158476869</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
         <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03033218783738965</v>
+        <v>0.008067018854789177</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.06866837644364192</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.0390838455238878</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.02140566040512614</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0484240446400741</v>
+        <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08902899335047411</v>
+        <v>0.002860060348702941</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0.07265032077702867</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
         <v>-0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.01762330223161153</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0.2175651958330695</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1608784510457738</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
         <v>-0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.09630664104076866</v>
+        <v>0.06347116047211457</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.0152668860252032</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.1764337158015444</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>0.1050258831502467</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1554367938133477</v>
+        <v>-0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.04797274552358149</v>
+        <v>-0.1276967350681869</v>
       </c>
       <c r="BH4" t="n">
-        <v>0</v>
+        <v>-0.0758212949354972</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,214 +2328,214 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.03582171104637338</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>0.06376023340927772</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0134414517743502</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.0962916790550242</v>
+        <v>0.04140831385481724</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.02609917198710278</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
         <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.08563800196319293</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.09380066182914495</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.01949370634413278</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.06396673288532716</v>
+        <v>-0.0009871443570695581</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>0.002543303137248344</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.1319225885560613</v>
+        <v>-0</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.05558492994580834</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.04572609235939993</v>
+        <v>-0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.07969656726632177</v>
+        <v>0.0001799964759417533</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.006461381188011335</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.05914312363208562</v>
+        <v>-0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0</v>
+        <v>-0.005967232970189508</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.01154339110299297</v>
+        <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.007181282413161039</v>
+        <v>0.001458478085489538</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>0.001464592860512544</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.003244433139044078</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
         <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.04410643555243494</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.04781917901263965</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.04855713375120576</v>
+        <v>-0.0008416423393761932</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.01730418965838453</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.02960696202137341</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.03935494820933744</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.02760061077239147</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.02864670558629528</v>
+        <v>0.05980147128172481</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.04333768524948763</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.02879531270379014</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0</v>
+        <v>-0.04694239505430352</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.00365237725439977</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.1237132249995272</v>
+        <v>0.02986457889957643</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0.09683601838984281</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2295564789447596</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0.03814129469021303</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.01214896250600254</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02513154739681231</v>
+        <v>0.03212914563432739</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.01123930828880754</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,25 +2544,25 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.06717058006748715</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>-0</v>
+        <v>-0.04801623837788595</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.06676618525876732</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
         <v>-0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.1496695536931159</v>
+        <v>0.008311000499885471</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>-0.06315824145296788</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
@@ -2571,79 +2571,79 @@
         <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.05895902524140621</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>0.01712514496336704</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.08759089807485503</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.08426028117468162</v>
+        <v>-0.03061071829969543</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0.05061058242405494</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.1639211765162059</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.03751705835371569</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.03082620701991622</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.0626110471357291</v>
+        <v>-0.004093315488174765</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0.02108465294113</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.05438566567930355</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>0.01879203475910941</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.07108586716351478</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01638190041502784</v>
+        <v>-0.08715168447484313</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0.04161381358752134</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
@@ -2652,25 +2652,25 @@
         <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.05646588288760022</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0.05939267838573126</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0.05771825672587386</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.04576014747187174</v>
+        <v>-0.02186477343981254</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.04618255422257123</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.1788700052465063</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.05156682478867555</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.04845221342640177</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
         <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0</v>
+        <v>-0.03161612858631781</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -2706,27 +2706,27 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.1692393844054508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2821064155510101</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-0.2017888425955991</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03484234116225367</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.09566984172833053</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.05044331329406165</v>
+        <v>0.1253054673679863</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2735,25 +2735,25 @@
         <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2329493987246805</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.1189104702026618</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02741908869959951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.1019244142803574</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1099906149322962</v>
+        <v>0.1104293592608269</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2765,19 +2765,19 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04727692438040285</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.1068351354570898</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02483925098593793</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.02455443409637274</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1451664519414463</v>
+        <v>-0.02988845194482354</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -2792,79 +2792,79 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.009275777300361863</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.1317616181461947</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0128206404635915</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>-0.01373404723358118</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.004812768078178641</v>
+        <v>0.02684791534839416</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.100812980989029</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.0571425138907023</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.02543517516569162</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.0479679453134834</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04569378231278614</v>
+        <v>0.08513938176520382</v>
       </c>
       <c r="AP5" t="n">
         <v>-0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.269554405469244</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.3553466709969749</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.06581029525635079</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.03606260309084391</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.00952941566506656</v>
+        <v>0.03305277164785436</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
@@ -2873,49 +2873,49 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1120014663493102</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.05632888501780718</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.03816097315105638</v>
+        <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.1417349076827029</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.03592139685679027</v>
+        <v>0.2480483364538288</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.03452308013435674</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.04378382975676044</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02709317312288632</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0.0140390230696374</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1268171171573093</v>
+        <v>-0.1035100580212537</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
@@ -2927,73 +2927,73 @@
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.2254290422543783</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.2567162103371121</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.03210295379333879</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.02662741045418527</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01762271853638995</v>
+        <v>0.01832735017620911</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1056295170299284</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.1089740176121883</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.01962095101386685</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>-0.04212665839891884</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.03465835518675645</v>
+        <v>0.001306496969322453</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.004278420177774103</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.0006330889481958411</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.0004680165801855711</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0.01864204886672243</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01167258658050385</v>
+        <v>0.01125826159253306</v>
       </c>
       <c r="CR5" t="n">
         <v>-0</v>
@@ -3002,28 +3002,28 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.09049788375249149</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.1100147954723156</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02092559379311049</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0.05471305547719627</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01193500526155239</v>
+        <v>-0.003790045568179294</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.0112402179348345</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.0669725256761336</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01271778272165921</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0.04459353791867711</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.009424494301954262</v>
+        <v>0.05259585022912761</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
@@ -3056,25 +3056,25 @@
         <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02093783499755147</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.05782766197838465</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.02737360403888065</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.02699791635693409</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.009775997340319521</v>
+        <v>0.06938141021266507</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
@@ -3083,25 +3083,25 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.01504717889829697</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.09652335624919137</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.004945572174843093</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.08562719246596559</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.026530987458178</v>
+        <v>0.005062374043623924</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1610094746655382</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.08306072193010115</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0136827514996872</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>-0.03552560180710106</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.04688549899055123</v>
+        <v>-0.09643174225889732</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3140,25 +3140,25 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04696352016827868</v>
+        <v>-0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02216002581328505</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.04727465354266942</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.003935585556178429</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.02664973958012789</v>
+        <v>0.02858376270481193</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
         <v>-0</v>
@@ -3170,22 +3170,22 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.08861231639418908</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.1161059290644028</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.01942041710940088</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>-0.04571407299108356</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.008968210663223281</v>
+        <v>-0.005525237673463522</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD5" t="n">
         <v>-0</v>
@@ -3197,19 +3197,19 @@
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.1009927125414082</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.04352082423576756</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0.001498013733949454</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>0.03887511664937808</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02488916823571261</v>
+        <v>0.003280281158531146</v>
       </c>
       <c r="FL5" t="n">
         <v>0</v>
@@ -3218,55 +3218,55 @@
         <v>-0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
         <v>-0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.03367483089354518</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.0228948785269883</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.002087889579050895</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.1310766822588234</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.0480681033159491</v>
+        <v>0.01053178299117969</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.08372777164295492</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.04686392218292912</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.007118089028685827</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.04722402158464589</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
@@ -3280,130 +3280,130 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1662628734415326</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.098589737730975</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04953200822106372</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02133010149997967</v>
+        <v>-0.03716882124529888</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.05889402576708862</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1440286678516576</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.07591009000613824</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02593480952110694</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0661266248827725</v>
+        <v>-0.02526441669601166</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.02897242378515327</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03250373664303926</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.01308287818657964</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0122848829950638</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1013520165950213</v>
+        <v>-0.01148623688754034</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.01531570970063306</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01233839198073578</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.0007722488823694022</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.003707285715761993</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01017505609581382</v>
+        <v>0.009697745314079289</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.007242541824408706</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.05000093871760095</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.009657181753325368</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01013028786393929</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02411867676043516</v>
+        <v>-0.0164482372777186</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.01402000908131821</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
@@ -3415,22 +3415,22 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1332795082265418</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.1115342192350542</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.05292679904459942</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0158787840353891</v>
+        <v>-0.03806562900629869</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>-0.04875157598315774</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0</v>
@@ -3442,22 +3442,22 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.06038280794145799</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.03627771225050603</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.04344078340109429</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.01886491320069688</v>
+        <v>-0.06671482257130028</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.05611205330187267</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -3466,52 +3466,52 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.02147077196332737</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.03853905649338467</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.03121776344973319</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.07618799737595525</v>
+        <v>0.02364058539047298</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01717465966608096</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1130186985656727</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.05380420809177421</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.007402917725817255</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.00902805723079788</v>
+        <v>-0.01849187197016208</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.009626130295333645</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
@@ -3523,52 +3523,52 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.0573357844121691</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.02762513005570845</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.02391274886821854</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01106938039289704</v>
+        <v>0.002012564282799612</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.02612644073259819</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.001365731427611333</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.001572324596117162</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0.0006129914800815593</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.01078137534969934</v>
+        <v>0.00365336446598921</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.00551051687141719</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
@@ -3577,22 +3577,22 @@
         <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.04723786429950166</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02032286390559992</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.02447836692061396</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01093513351964016</v>
+        <v>0.006837802213101968</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.02882748845648164</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3604,229 +3604,229 @@
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.02397091151485729</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.03345801405159488</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01489409874778369</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01813563904271455</v>
+        <v>0.03608122934416567</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>-0.0009048471383805738</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.007206672152013009</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.00690845174317941</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.007760999060571318</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.0136776395009082</v>
+        <v>0.004166525402938957</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.006955147207822115</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01305031937323887</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.02764588040787757</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.005227688674259006</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.03930199517275862</v>
+        <v>0.0187381655148169</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.02034467008597319</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.09448628021226607</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.02781516952107855</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.02197518676156239</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.03058705637903665</v>
+        <v>0.01328962260646212</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0</v>
+        <v>0.0304176700423284</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.0257672319327012</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.013018733381946</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.03400253771743307</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0003073468864007224</v>
+        <v>0.01817494190107361</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.0008270683631312054</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.04801784852581533</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.01948476015417681</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.02303773825843137</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.008889186253586197</v>
+        <v>0.008674003653532616</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.03110559423755292</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.05828765273280654</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.01444319140441395</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.009653352546241077</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.001809773536839722</v>
+        <v>0.01711024059670139</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01351874446343366</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.0154320211413641</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.005266550371329591</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0004395297929342383</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02224043483190519</v>
+        <v>-0.0232812253095729</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0.00138062191346152</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.05392831607146129</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.004166469481758102</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.001620818630228979</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
         <v>-0</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.005889418146849242</v>
       </c>
       <c r="GE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
         <v>0</v>
@@ -3849,25 +3849,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1656132692823486</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.279124241643521</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.06332259382534795</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07201308063257535</v>
+        <v>-0.02762894846112073</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006750040236193386</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,160 +3876,160 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1378318819665976</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.1907162918675416</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.03652675361592649</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.09633081878909044</v>
+        <v>-0.03296570930158157</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.004111794539492396</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01283565132039671</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.0842227134110114</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.0002229368255991902</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0723373626606276</v>
+        <v>0.06514595656644362</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.03687450013162189</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02923349623917305</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1259942104877981</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.04420925084468882</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03223274750222634</v>
+        <v>-0.07848257797210868</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0438816840868908</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05574910131996682</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02155216130396037</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.06807415932470212</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03523946930170564</v>
+        <v>-0.03827357410075978</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01090652203738178</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1345567124426323</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.3492257278969247</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.00355701222424841</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.008651875832196149</v>
+        <v>0.1345038130050455</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.04127246816697281</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.06642206875963065</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.03300920246290733</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.05581374663042713</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.05025958977303151</v>
+        <v>-0.1735676531394212</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.002763583668802588</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4038,52 +4038,52 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.02344680477521778</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.02978691146499432</v>
       </c>
       <c r="BN7" t="n">
         <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.09825332270577748</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.05731126866279369</v>
+        <v>0.0941963944260592</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.02179648674394515</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1052063326300443</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.197072476710902</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.01681565687068927</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.02598172830703218</v>
+        <v>0.06166973723403793</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01996788279306834</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
@@ -4092,351 +4092,351 @@
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.05586579595414329</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.08767611171470337</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.01295776117052723</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02653524775893143</v>
+        <v>-0.006527881850666439</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.004804445769664764</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.003384358033868128</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.01083110329922135</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.01425007821702101</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0143632255186303</v>
+        <v>-0.0197793589575065</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.002540001576460935</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.04877848940549149</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.07254481306032003</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.03540277116295626</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01467425472988627</v>
+        <v>-0.007749252218819924</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.0009158068908315075</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.00631701191094764</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.01552554433418465</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.0003104113852679621</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.03028893329654798</v>
+        <v>-0.0003425891049277837</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>9.261477618400008e-05</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01037144018172407</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.06000578200483908</v>
       </c>
       <c r="DP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.06455456560740098</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02611979082255952</v>
+        <v>-0.06722639862900112</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0.02462294943633506</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.001896266219401006</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.01088176422508598</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.01867734357225099</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.004122180791560485</v>
+        <v>-0.005377033227939417</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.003037639804374541</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.09071411366486225</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.05229549131452736</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.02704670919230993</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03710597318619618</v>
+        <v>0.09251821182971544</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.03151262900671459</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.02166137809053354</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.08152338177589474</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.08667893894024714</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.06336710033614103</v>
+        <v>-0.01626069881236129</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0.01367913432067895</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.04791978025952082</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.07769133107128863</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.02266998334626571</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.009455858029995802</v>
+        <v>-0.01028185361448744</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.003598266043892261</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.04824908110239098</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>-0.01051144063389798</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.04748965459258143</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.01320048228019086</v>
+        <v>-0.01400474004250794</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.003584986080081413</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01191202975731364</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.002676069153934686</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.06584445349652913</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.005781376361303485</v>
+        <v>0.03211288872499326</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0121534772339058</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.03786725560015393</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.02212208209372212</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.03563408003848977</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02266855380722869</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2164931309482306</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1589610711727572</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09214365850088518</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02381459853984367</v>
+        <v>-0.04337964506746834</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.10106543879525</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1900687902142485</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.1227449045020368</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06283782320555147</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06586221235975448</v>
+        <v>-0.01494532506676126</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.05593671828055311</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,106 +4472,106 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01896851667057296</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.02863058078650222</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.03353753312195797</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1086175749328804</v>
+        <v>-0.02229832001961994</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0009944783973878963</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01982598215513047</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.0003256268392576414</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01421781706718067</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0607774239447738</v>
+        <v>0.0005517397164854005</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.008504614147312782</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.06384566552884403</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.02538074766034841</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0189689979514688</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.03643644028785887</v>
+        <v>-0.008424205901947788</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.0502531428929397</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1590060399513155</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1463275473736579</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1140684333089583</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.004031725893849656</v>
+        <v>-0.03509795254325043</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.109345915823353</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,76 +4580,76 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05350601771966626</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.04932863652300052</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.05007345607527767</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.04585510268779832</v>
+        <v>-0.04623260542257231</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.04530551014053272</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.003996781352719209</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.04281810092315083</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.04596980012616368</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.09995934237377883</v>
+        <v>0.02105778762007339</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.004317474875009573</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1539174923734821</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.08404362072520531</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.03327418243692633</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02059107259660221</v>
+        <v>-0.024025163353162</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.03217315708767531</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4661,22 +4661,22 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.07074083329094238</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.04130357840418181</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03021381243302501</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005620053681842038</v>
+        <v>0.002236600239076929</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.03427002024254591</v>
       </c>
       <c r="CJ8" t="n">
         <v>-0</v>
@@ -4688,49 +4688,49 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01090557420502618</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>5.835430320860319e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.002987013306047702</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.02195464666476213</v>
+        <v>0.0005470976653379152</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008606977068776637</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.06467324588283145</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03680334579194405</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.03131778461504076</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.01565025492999986</v>
+        <v>0.006678294474540209</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.0378188200655074</v>
       </c>
       <c r="DB8" t="n">
         <v>0</v>
@@ -4742,130 +4742,130 @@
         <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.005499407801403187</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>0.005967600968891288</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.02500622161908504</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.02846858089121116</v>
+        <v>0.05092798024129717</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.00205764002187583</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.001719344165805898</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.01912797001000105</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.03438707654223193</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.03974269439323686</v>
+        <v>0.01515440308682065</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.009579668336211303</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002751620338575852</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.0468107666023125</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.006084185011436123</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.0221094805364616</v>
+        <v>0.02921393859205576</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.01431956995744334</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.1053473776465403</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03381188172023993</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.03954724612811551</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01843321298348168</v>
+        <v>0.01332405059405311</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.03384596103336049</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.04827993349921349</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03358558061923612</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.03395577481051788</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.01020519968690913</v>
+        <v>-0.006699547886820608</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.004051194981766691</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
@@ -4874,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.0646142969969708</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03691880530666464</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.02564228028314473</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.009550552541936538</v>
+        <v>0.007592433114835911</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.03584873379244093</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
@@ -4904,67 +4904,67 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.05150322783248382</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.02113800646607456</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.03119474364555842</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.02585711187436319</v>
+        <v>0.01264562921169815</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.03154009075545897</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.004021994979321855</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.001738165228662885</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01232153648056943</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03067168442553688</v>
+        <v>-0.02377997533538515</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.02189201655433314</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.02840409005413238</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.005932175969692238</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.01641926851505799</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.01806336878785947</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
@@ -4987,25 +4987,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1967708419124733</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2650050552336102</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02105939184546008</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.08540261505905275</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02159826308139944</v>
+        <v>-0.06975935624334557</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.02848423300111132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00646343433506608</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
@@ -5014,25 +5014,25 @@
         <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1839752407330107</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.2005425909663803</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0136475912964221</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.0469943466558634</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06410719122467165</v>
+        <v>-0.04950597859014896</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.02572641147043984</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.007613452833731441</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,52 +5041,52 @@
         <v>-0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02041986344986986</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.06693374759666799</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.02023161723041588</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.01951193003928579</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.08386379730933245</v>
+        <v>0.0323346273786867</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.009331752982247294</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.06952310234979309</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.008894837693108263</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.05170185397648627</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.03334885674558645</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.01795248072868565</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01369763558297301</v>
+        <v>-0.007370823556753229</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0.01553611506841176</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.05967604024952568</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -5095,133 +5095,133 @@
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.04985245853674395</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01749806933138082</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.002892097614867418</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.05718022179325975</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01240873081619621</v>
+        <v>-0.05612006660120532</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>-0.03241313368255059</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0104989122254942</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.137605627849073</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.283709686611043</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.02456566900005732</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>-0.03799887563040592</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02377272102055637</v>
+        <v>0.03156966548561439</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.03179248766445465</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.03666550215830869</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.05829709528986338</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.03857323132062866</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.01313323489680905</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.06708321841754265</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.02918688799134627</v>
+        <v>-0.1089795276012803</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>-0.04732587658507667</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.006478460278423897</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.0388146954839934</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.05716311196925</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.019519703695581</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.05144928529924453</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.06564393342845884</v>
+        <v>0.0969430017859292</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.03554574642186482</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0143920217585471</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.09883665695904194</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1270514975099279</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.006695518287693844</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>-0.0008018622796258022</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.002433726588912304</v>
+        <v>0.01434587305899816</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.01244655151281326</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.00959209795532842</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
@@ -5230,52 +5230,52 @@
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06105200888716648</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.06739645866687233</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.007375290042254485</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.01058010982736738</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.007984192941017969</v>
+        <v>-0.000167696443055077</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.02326035387194274</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.008489066787858558</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.001675872728212995</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.0004563207409788877</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.0006692332536050909</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.02145531359072898</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.02034774506969227</v>
+        <v>-0.02742448701147641</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.008938100021586157</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01373942970062161</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
@@ -5284,79 +5284,79 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05629680074601172</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.0548676370488267</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.01226756019382977</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.03137085279995845</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01232407305992254</v>
+        <v>0.003399438728241294</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>0.02270225672176187</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.001868381957935604</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
         <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.006872516978788067</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.02150088328165945</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.007925803394331434</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.04760994177240586</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0007409580166456241</v>
+        <v>-0.003956014878707961</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01211590241616265</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.00589382147472576</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01821502071856853</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.009691239470002538</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.001644295890834962</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>0.03921305234909025</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01223580797371441</v>
+        <v>-0.01792211719686711</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>0.02249507212371893</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.03899568275250344</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
         <v>0</v>
@@ -5365,243 +5365,243 @@
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.002086750337535839</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03283059838521874</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.01050970458569065</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>-0.01638419330862931</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01182448029180079</v>
+        <v>0.008181814645566087</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>0.03278814517648578</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.005528834849493756</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.09670327957259497</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.07838729814648575</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0.002080307644902311</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.03280448861266706</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.01274106592493993</v>
+        <v>0.05359052649747519</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.01666918280884291</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.02994024584049261</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.01938343694166192</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.04977002161745193</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.01234946818755733</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.0247012017739537</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03190626930324628</v>
+        <v>0.01955589592977269</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0.0411708205520129</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.01380705198976486</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05425141831788168</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.0545583148656341</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.01068750894673725</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.01357296279110911</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.00732110299618722</v>
+        <v>0.008851729330875975</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0.02804907976287273</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.002072239438809029</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.0661043222288132</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.02425699566946161</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.03061842564331942</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.03839659592325681</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.03842484643701484</v>
+        <v>0.001711482106203641</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>-0.01543114945773326</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.01622523773681915</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.003472543840543792</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.0038207607570778</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.006787625339911352</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>0.0171613403516136</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01184202518333292</v>
+        <v>-0.02240357659577574</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.021148376001634</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.004768935516519492</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.04602339053131509</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.01759752878040514</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0.01493481960733862</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.05007373062138434</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0.02551342436708259</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.02517352613152605</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1479659220437635</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2387077326513741</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.06797784265224502</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.05508177904049959</v>
+        <v>0.001104353515527399</v>
       </c>
       <c r="F10" t="n">
         <v>-0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0222632970042814</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1379340204782736</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1755553893213557</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.06562201846455426</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.08458031861258693</v>
+        <v>-0.01033087717111966</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0004312035193815047</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -5610,52 +5610,52 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005933161485528333</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.06227265993710771</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0.01248100295046824</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.03605459935317519</v>
+        <v>0.07309294609813236</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.04126372145347911</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02035026539437508</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.06290120153465241</v>
       </c>
       <c r="AD10" t="n">
         <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.01986259900349703</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.002036951002623077</v>
+        <v>-0.01468156550347631</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03885516118401735</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -5664,160 +5664,160 @@
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.03647050517804375</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>-0.01928408265896196</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.06023233303281686</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.009290757823381445</v>
+        <v>-0.04753725293071204</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0110671417427793</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1097884481093118</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.2358114980705751</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>0.0251648680282537</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.008729065751977108</v>
+        <v>0.1222662474380745</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.02681089071085719</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.04251094738647535</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.03701665347282697</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0.1045919969614737</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.04765905513216565</v>
+        <v>-0.06599275087908038</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01549720239656181</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.02653931006413302</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.04892852460553179</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>0.03216264329681798</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.04013595945723642</v>
+        <v>0.1603512934418344</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.00921708916055553</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.07836373764411725</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.100258298234984</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.03564841989720731</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01255212443194119</v>
+        <v>0.0829458903503518</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01294669617783297</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.04202988778160553</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.06375369148944911</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>-0.002057769314283808</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01651814297856586</v>
+        <v>-0.01211326570539124</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.0114714587792318</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
@@ -5826,52 +5826,52 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.003291509469420851</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.007045938190649382</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>-0.04091356998396182</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01372290373459768</v>
+        <v>-0.04152978998435907</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.0153358691843711</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.03893521909457674</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.04897435773996345</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.01407872682882558</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.004551939180809582</v>
+        <v>-0.01055997007038905</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.006094334023123741</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
@@ -5880,25 +5880,25 @@
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.002976507137625561</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.03329815417478197</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>0.01542770324616192</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.002460227743733641</v>
+        <v>0.01639791657613373</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.005365338779386477</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
@@ -5907,133 +5907,133 @@
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01450866541266513</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.03008037215508554</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>0.05652770668976206</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.02149434770585267</v>
+        <v>-0.02108192290297939</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.03117126670871817</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.004478066141906966</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.04520444708774131</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.004664726215604025</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.02159488656796355</v>
+        <v>0.01267861156450676</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0.0001765484734963898</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.06599027716273885</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.06565789102703237</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>0.01726239131675898</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.01235644676213008</v>
+        <v>0.04920354457150818</v>
       </c>
       <c r="EK10" t="n">
         <v>0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.02394744590021573</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.01024641262555681</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.04520889281590022</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>0.01966675362094232</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.040021785547507</v>
+        <v>0.03223192967828856</v>
       </c>
       <c r="ET10" t="n">
         <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.006677918859384296</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.03546518528404812</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.05065950007802948</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>-0.009093770341052227</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.000340453074295357</v>
+        <v>0.005435958414426116</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.006018753625404235</v>
+        <v>0</v>
       </c>
       <c r="FE10" t="n">
         <v>0</v>
@@ -6042,52 +6042,52 @@
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.04819109990828077</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.03770416571436889</v>
       </c>
       <c r="FI10" t="n">
         <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.0009175467341158154</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.03812312691505759</v>
+        <v>0.03981059378440965</v>
       </c>
       <c r="FL10" t="n">
         <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.009344266628761626</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.0008890412955202529</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.00144458590414132</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>-0.001284400071262812</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.001305528857722856</v>
+        <v>-0.006469988742281124</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0.0008813861030704892</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
@@ -6096,54 +6096,54 @@
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.03635359610113294</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.01972838523788178</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.09186509288272342</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.01741458963578133</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2412782746401877</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.2878147212338333</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1389090265511195</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06811726104795054</v>
+        <v>-0.06903426678540173</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.1861605570832192</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
@@ -6152,25 +6152,25 @@
         <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2560439628048113</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.2577700144135838</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1516072155740714</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.05585567026096942</v>
+        <v>-0.01676982683713597</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.1812069610603313</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>-0</v>
@@ -6179,106 +6179,106 @@
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01267198555847509</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.02997240260031061</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.03676869906659835</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1129258614516598</v>
+        <v>-0.01091782248889533</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01066161805841402</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01362156524442905</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.01514748725954933</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.00973665942094442</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.06971821131388831</v>
+        <v>0.03799535978859657</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.004067049017134807</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.06181591163826725</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.04255185539692295</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.02369771061363335</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.0321511165760441</v>
+        <v>-0.004216380830539836</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.0639193299035308</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1414906708087964</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.2284602772073094</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.08074787096012495</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.0008861955579279861</v>
+        <v>-0.01842010448539014</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.07901639720775332</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>-0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.04481977794627437</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.05833942486599913</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.04385861597235118</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.09261715607582949</v>
+        <v>-0.06472983427533363</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.08219059373657751</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6314,49 +6314,49 @@
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.009587531954688753</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.04620553626372256</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.05534025790505372</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0986743353489599</v>
+        <v>0.01785785903410116</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.005465321145655151</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1472407346647926</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.114615607703585</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.0487230462573247</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.006317365366605245</v>
+        <v>-0.02948840970321008</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.04878079628020656</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,28 +6365,28 @@
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.06753708734640677</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.0648703088395393</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.03329787585315829</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.0005870451976565737</v>
+        <v>-0.007721770691504358</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.03872908045458783</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -6395,52 +6395,52 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.008447360754303372</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0.003525744495956261</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.01251346147907148</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.0320306905585979</v>
+        <v>-0.01611087152957932</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0</v>
+        <v>-0.05644652086419788</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.0615932136834842</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.05921382478101779</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.03404204442739523</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.02927034232696091</v>
+        <v>-0.007590635846527114</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.0401456629436726</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,49 +6449,49 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0.01805831769008884</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.03323712693232195</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.05464099621670856</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.002173383830132775</v>
+        <v>0.06211845463833868</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>0.04859796409482577</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.01070001177120493</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.02722390994583234</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.02783640068794748</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04015257849101932</v>
+        <v>0.02287095351202065</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>0.01431597885538048</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6500,25 +6500,25 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.003772873524205466</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.05460411774411725</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.01049512394052305</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02678149502330867</v>
+        <v>0.01521494923011018</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.03231451210163941</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,52 +6527,52 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1100664395124962</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.06896587327047683</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.04255612048831804</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.007141337276886888</v>
+        <v>0.02754018855389256</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.0253394665324788</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.04271954289349626</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.05035544475187786</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.02536315576538163</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.008148267171477644</v>
+        <v>-0.03500058140180162</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.008463769422931347</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,28 +6581,28 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.06352315293273947</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.05914737327037439</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.03046907641288739</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.02004332167290537</v>
+        <v>-0.001121468935411549</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.03988739638894542</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
@@ -6611,22 +6611,22 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.04902542982393479</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.03157828800321573</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.04833986415083051</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.04322008718990253</v>
+        <v>0.007263258386767567</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03666540696353879</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.0008427917270472245</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.000422044898886936</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.02476516228451239</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.002141869490158386</v>
+        <v>-0.002354695548638968</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.04851509601175726</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0317649915351207</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.0005669519955003551</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.02688890654468967</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.04211418995605395</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,160 +6694,160 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2714067643758337</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.4870340664615532</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1455723229004728</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03586069398986891</v>
+        <v>-0.1171038079518017</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>-0.4436249964418046</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2733076075981725</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.4564442769178869</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1624277012435156</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.08273792125538318</v>
+        <v>-0.05570592675916219</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0.4518573142021146</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008954873075792421</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.03678668043720053</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.03836216179904126</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.08797567655804962</v>
+        <v>-0.08439262822239568</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0.01567068857811676</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01340254325220028</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.02363507836424826</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006336328411089154</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.04944760578558498</v>
+        <v>-0.01012467495818293</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>-0.03447034086699631</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05589601734656249</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.08346482370634739</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.01691581698354639</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03780649541021868</v>
+        <v>0.001425139274130004</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>-0.08288815890890448</v>
       </c>
       <c r="AQ12" t="n">
         <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1500266940496688</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.4142823062989933</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.07729613851105492</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01923626526822604</v>
+        <v>-0.07056162875261536</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0.2195072107427806</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
@@ -6856,22 +6856,22 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0604596999840659</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.1084983479853896</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.05866889128964646</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.07372973262872869</v>
+        <v>-0.1511296373082835</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>-0.1920463743209763</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,52 +6880,52 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.01065681270443701</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1430673738132707</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04791512450385455</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1001646223654745</v>
+        <v>-0.003506804419984493</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0.01774829638850664</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.1386825729418612</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2174578064331273</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.03884322875779642</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.007487444837952052</v>
+        <v>-0.07027843473932166</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>-0.1317131469424722</v>
       </c>
       <c r="CA12" t="n">
         <v>-0</v>
@@ -6934,25 +6934,25 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.07003434321246337</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.08493679991571336</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0350254086187342</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.005891865320836681</v>
+        <v>-0.005132296706541574</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>0.107260316561954</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
@@ -6964,49 +6964,49 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.01116511190832582</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>1.411111576022698e-05</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0.005253336738184716</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.04709194035472856</v>
+        <v>0.01656313510158922</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>-0.02173635870421967</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.06174685538066453</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.06794519309467903</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.03870409914600666</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01982883150617436</v>
+        <v>-0.002517826506811512</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0.1129463761574095</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,22 +7018,22 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.03116748670072723</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04002326517017469</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02940341820821472</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01843815763845517</v>
+        <v>0.0444566794875837</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>-0.001614683906987056</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
@@ -7042,106 +7042,106 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01072828974938054</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.006081052987154392</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.009720439196999244</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0209866850076461</v>
+        <v>0.03351720870604942</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>-0.00651404814989466</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.01438501966824475</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.05777594466092893</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.02172884913678988</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0132618380024598</v>
+        <v>0.01639577769065341</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0.05440360332127209</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE12" t="n">
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.1077872425324581</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.09693440032671177</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.03919551208102516</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.005328860800526965</v>
+        <v>0.02439302318152298</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>0.1195640580710318</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.04804444759808291</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02990216264525762</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.03901763000119844</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.002457470554809723</v>
+        <v>-0.01296633880913288</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>0.07094629067274934</v>
       </c>
       <c r="EU12" t="n">
         <v>-0</v>
@@ -7150,25 +7150,25 @@
         <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.06432189949483554</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.06543195927951648</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.03352929395248684</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.008246082652946116</v>
+        <v>0.006229404879093165</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0.1024537790435004</v>
       </c>
       <c r="FD12" t="n">
         <v>-0</v>
@@ -7180,79 +7180,79 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.0328326701456003</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.002535719417640378</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03960553809179333</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
         <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02562750053489276</v>
+        <v>-0.008508884200727705</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>0.05172385674770193</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0001596378971706421</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>0.004963051982165477</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02693253112293839</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
         <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.006327585439623186</v>
+        <v>-0.008810654514323803</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>0.03438754936987051</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0372858696279504</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04462418624405818</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.01964902975196543</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC12" t="n">
         <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>-0.05108333755087999</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -7290,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -7371,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -7506,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -7533,10 +7533,10 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
@@ -7614,10 +7614,10 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
@@ -7668,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
@@ -7695,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
@@ -7832,10 +7832,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,22 +8401,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2092555256636294</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>0.1555227955103367</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06995427573767635</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05739924232357475</v>
+        <v>-0.08280241633837762</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.07228254118439849</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8428,133 +8428,133 @@
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2032031164877519</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1280013609926359</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07342525722016756</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01881385010078339</v>
+        <v>-0.05768573777505789</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.07598714090533507</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.005925257005405446</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01378244307605709</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02029985355908337</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.06038164376338419</v>
+        <v>-0.004451178988662641</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.009296517155136153</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00474342197413865</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0.004937052603166965</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.003150675559788919</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.03030016516921492</v>
+        <v>0.01397086337945391</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.01246458326384953</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.03224701179088503</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.01048426267962558</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.008800493304057098</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01978541408020478</v>
+        <v>-0.008843058167262783</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.01472490147678882</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.09470419513085324</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.1072825700670186</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.03466692001246453</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.01047166037388737</v>
+        <v>-0.02880010261672456</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.02119212093019258</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>-0</v>
@@ -8563,22 +8563,22 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.03392770264770475</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.03149636970574076</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.0312425067020119</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.05272762431173625</v>
+        <v>-0.05775229627875221</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.05909104473704765</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8587,52 +8587,52 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.01004758422954378</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.03556435611813727</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.03136522446729834</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.05762484756504983</v>
+        <v>0.0160377211932141</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0.01704690532514525</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.08727001366882281</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.05103091105067987</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.01434265502184255</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.02274915151628361</v>
+        <v>-0.01218046926464564</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>-0.01384008897907786</v>
       </c>
       <c r="CA15" t="n">
         <v>-0</v>
@@ -8644,133 +8644,133 @@
         <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0.04996009371413365</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.02622308846222178</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.01916443306842008</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.004217207391600208</v>
+        <v>0.007127736093176795</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.01772200217820961</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.008361984912041718</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>0.0008607606247808709</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.005310143289268811</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.04320140206811009</v>
+        <v>-0.007075855757484145</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.01179765717120735</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0.04568746562739772</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.01997228527183853</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.02236679920305712</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.01643140861784035</v>
+        <v>0.006098553888960175</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0.01817422480022265</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0.03072380718267132</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0.03236358042313904</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.02017779473866237</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01876615173091657</v>
+        <v>0.05139714038333401</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0.01369322867674388</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.009512690706736576</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.005787316285419271</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.008085557643961294</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.01229617762981887</v>
+        <v>0.01937102480609069</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>-0.009748317299426336</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
         <v>0</v>
@@ -8779,25 +8779,25 @@
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0.01220476749076608</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.02951577427682513</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.008182208027690792</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.007686764775589467</v>
+        <v>0.01498315768491325</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.01825960522851271</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
@@ -8806,49 +8806,49 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0.07466337058275521</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.0315053328593496</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.01826245205985942</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.007883362227836895</v>
+        <v>0.00944317674849344</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.01334605781814872</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0.03594307345005075</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.01243019102766987</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.03112116527872794</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.002246135517427202</v>
+        <v>0.002243096035829807</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.01165242559899074</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
@@ -8857,97 +8857,97 @@
         <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0.04609332239012731</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.0208915055260241</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.01825583707176345</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.009044521283204217</v>
+        <v>0.009264301360075101</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>0.02170654796978215</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF15" t="n">
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.02240851692946044</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.01511337365004362</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.01631843673574277</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.02605618111617304</v>
+        <v>0.0113268961668335</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>0.01985781488408164</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>6.877014744184186e-05</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>7.644719732458803e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.01299729352922879</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.002642398009516363</v>
+        <v>-0.001509859052916248</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0.01880918805336776</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.02324626247009449</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.001820653164314721</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.00405279887161444</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
         <v>-0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.005457780234660795</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8970,103 +8970,103 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0.1266462604957166</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2574117760980887</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4951432500059961</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1351941507545215</v>
+        <v>-0.0359596502453245</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>-0.1458807809284861</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0.1005695273084039</v>
       </c>
       <c r="K16" t="n">
         <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.2348286332002927</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4623139546353567</v>
+        <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1333355898686648</v>
+        <v>-0.002737779122467324</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-0.0997243053547566</v>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0.01760666690443216</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.00727118115706724</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.0003759573960237542</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.1833564385629497</v>
+        <v>-0.03898100455986269</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0.02367567826519899</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.01516222809156062</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.06800700434651451</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.08084943172907946</v>
+        <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02662732033895885</v>
+        <v>-0.02746700724001907</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0</v>
+        <v>-0.02875747820365326</v>
       </c>
       <c r="AH16" t="n">
         <v>-0</v>
@@ -9078,52 +9078,52 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>0.02170311454758471</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.04680454798613666</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.1130841665430811</v>
+        <v>-0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.02561028891109931</v>
+        <v>-0.007094937415410008</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>-0.01299687962429524</v>
       </c>
       <c r="AQ16" t="n">
         <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>0.08472652476482592</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.1707642212086706</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.1656544980421544</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.09166778546295208</v>
+        <v>-0.1007914678233191</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0</v>
+        <v>-0.08600565149370705</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
@@ -9132,76 +9132,76 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>0.01499549256361632</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.03737641349266694</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.2326916093045944</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.1372212740804411</v>
+        <v>0.01190784752073141</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>-0.04702454220862393</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
         <v>-0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>0.007487808577764449</v>
       </c>
       <c r="BM16" t="n">
         <v>-0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.1104398967228304</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.02679272737508455</v>
+        <v>0</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.1286414600365519</v>
+        <v>0.003610416424803363</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.008104688305153049</v>
       </c>
       <c r="BR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>0.03643594286452657</v>
       </c>
       <c r="BV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0.04167539533017816</v>
+        <v>-0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.1387129344300701</v>
+        <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.007310758904751065</v>
+        <v>-0.03598242985426318</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0</v>
+        <v>-0.06421245250715174</v>
       </c>
       <c r="CA16" t="n">
         <v>-0</v>
@@ -9210,55 +9210,55 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0.02249073403637856</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.06623082312647229</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0.1445492662415139</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.05133294973741546</v>
+        <v>0.01066464430794283</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.04343561869056956</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0.004126862283695319</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.08538116883641726</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0.09947630025185149</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.127802452872452</v>
+        <v>0.06820944344543946</v>
       </c>
       <c r="CR16" t="n">
-        <v>0</v>
+        <v>0.001346799260798693</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>-0</v>
@@ -9267,49 +9267,49 @@
         <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>-0.02108001772460196</v>
       </c>
       <c r="CW16" t="n">
         <v>-0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.05211665555953089</v>
+        <v>0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0.1148536043386383</v>
+        <v>-0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.03048712678041677</v>
+        <v>0.01460815439289092</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0.03937246904179714</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0.0001534932277220459</v>
       </c>
       <c r="DF16" t="n">
         <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0.02467444736457463</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>-0.003217879045790379</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.2073888326742129</v>
+        <v>0.03079357996395915</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0</v>
+        <v>0.001550474019576347</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
@@ -9318,223 +9318,223 @@
         <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0.0005372762060466832</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0.06534010604730481</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0.02686210363253865</v>
+        <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.1827325466944895</v>
+        <v>0.03730876190525402</v>
       </c>
       <c r="DS16" t="n">
-        <v>0</v>
+        <v>0.01723860783134225</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0</v>
+        <v>-0.008746059748456648</v>
       </c>
       <c r="DX16" t="n">
         <v>0</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0500627041745491</v>
+        <v>-0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0.08737342987277766</v>
+        <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.009451038654432383</v>
+        <v>0.01650795672862657</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0.03860945368572078</v>
       </c>
       <c r="EC16" t="n">
         <v>-0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0.02203262574153988</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.08275203538975351</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0.2260849742496362</v>
+        <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.04429082766809816</v>
+        <v>-0.003408451035381646</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>0.04728923408716374</v>
       </c>
       <c r="EL16" t="n">
         <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>-0.01277627041603102</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0.04265394756357874</v>
+        <v>-0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.05416623275960154</v>
+        <v>0</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.04216511085195584</v>
+        <v>0.02803751493072065</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0</v>
+        <v>0.002817743768328517</v>
       </c>
       <c r="EU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0.01808398236400945</v>
       </c>
       <c r="EY16" t="n">
         <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.05107478197386544</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0.1144026626453177</v>
+        <v>0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.04877779595791193</v>
+        <v>0.02408577528846209</v>
       </c>
       <c r="FC16" t="n">
-        <v>0</v>
+        <v>0.04115578127544132</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>0.007376195651755181</v>
       </c>
       <c r="FH16" t="n">
         <v>-0</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0.1116115321626685</v>
+        <v>0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.1074078291263656</v>
+        <v>0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.02018070979622351</v>
+        <v>0.01202097803954294</v>
       </c>
       <c r="FL16" t="n">
-        <v>0</v>
+        <v>-0.002121784118489793</v>
       </c>
       <c r="FM16" t="n">
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0</v>
+        <v>0.0006546982649096399</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.02653291952247257</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.004773574883488056</v>
+        <v>0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0001651128614074816</v>
+        <v>-0.0006216824476783274</v>
       </c>
       <c r="FU16" t="n">
-        <v>0</v>
+        <v>0.01139849522618542</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
         <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>-0</v>
+        <v>0.00460258118434362</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.04200879159359635</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0126521577998784</v>
+        <v>-0</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>0.01054367872908787</v>
       </c>
       <c r="GE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF16" t="n">
         <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
